--- a/Product.Backlog.xlsx
+++ b/Product.Backlog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.stocker\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>Projekt</t>
   </si>
@@ -132,9 +137,6 @@
     <t>Ein Kästchen, das sich links unten auf dem Bildschirm befindet, soll dazu dienen, dass sich die Spieler miteinander unterhalten können</t>
   </si>
   <si>
-    <t>60 Sekunden Counter Tag           - 30 Sekunden für Voting-Phase - Button mit 15 Sekunden Pranger-Phase                              - 10 Sekunden Urteils-Phase            - 60 Sekunden Nacht-Phase       - Alles in Schleife</t>
-  </si>
-  <si>
     <t>Kann bestimmen, wer in der Nacht getötet wird</t>
   </si>
   <si>
@@ -189,9 +191,6 @@
     <t>Der Benutzer möchte eine Lobby und seinen Namen eingeben können</t>
   </si>
   <si>
-    <t>Der Benutzer möchte einen Counter</t>
-  </si>
-  <si>
     <t>Der Benutzer möchte einen Godfather (Rolle)</t>
   </si>
   <si>
@@ -253,6 +252,30 @@
   </si>
   <si>
     <t>stephan.strittmatter@sybit.de</t>
+  </si>
+  <si>
+    <t>Der Benutzer möchte einen Knopf (Pranger-Phase)</t>
+  </si>
+  <si>
+    <t>Der Benutzer möchte einen Knopf (Voting-Phase)</t>
+  </si>
+  <si>
+    <t>Der Benutzer möchte einen Knopf (Urteils-Phase)</t>
+  </si>
+  <si>
+    <t>Der Benutzer möchte einen Knopf (Nacht-Phase)</t>
+  </si>
+  <si>
+    <t>Der Benutzer möchte einen Knopf (Tag-Phase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startet die Voting-Phase           Lässt den Voting-Phase-Knopf verschwinden                              Lässt den Pranger-Phase-Knopf erscheinen    </t>
+  </si>
+  <si>
+    <t>Startet die Voting-Phase           Lässt den Voting-Phase-Knopf verschwinden                              Lässt den Nacht-Phase-Knopf erscheinen                                 Lässt Voting-Marker für jeden lebenden Spieler erscheinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startet die Pranger-Phase           Lässt den Voting-Phase-Knopf verschwinden                              Lässt den Pranger-Phase-Knopf erscheinen    </t>
   </si>
 </sst>
 </file>
@@ -344,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -483,21 +506,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +519,6 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -535,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -605,32 +598,17 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -727,13 +705,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97901952"/>
-        <c:axId val="97907840"/>
+        <c:axId val="322376280"/>
+        <c:axId val="322376672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97901952"/>
+        <c:axId val="322376280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97907840"/>
+        <c:crossAx val="322376672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97907840"/>
+        <c:axId val="322376672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,14 +738,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97901952"/>
+        <c:crossAx val="322376280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1073,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1098,10 +1074,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1125,11 +1101,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -1179,11 +1155,11 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1211,10 +1187,10 @@
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1236,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1246,7 @@
       <c r="F1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1281,17 +1257,17 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="34"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="27">
         <v>3</v>
@@ -1300,11 +1276,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="35"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>32</v>
@@ -1319,11 +1295,11 @@
         <v>8</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>32</v>
@@ -1338,11 +1314,11 @@
         <v>5</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="36"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>32</v>
@@ -1357,17 +1333,17 @@
         <v>3</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D7" s="27">
         <v>5</v>
@@ -1376,207 +1352,131 @@
         <v>5</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="27">
-        <v>3</v>
-      </c>
-      <c r="E8" s="27">
-        <v>3</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="27">
-        <v>3</v>
-      </c>
-      <c r="E9" s="27">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="27">
-        <v>3</v>
-      </c>
-      <c r="E10" s="27">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="27">
-        <v>3</v>
-      </c>
-      <c r="E11" s="27">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="27">
-        <v>3</v>
-      </c>
-      <c r="E12" s="27">
-        <v>3</v>
-      </c>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="27">
-        <v>3</v>
-      </c>
-      <c r="E13" s="27">
-        <v>3</v>
-      </c>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="27">
-        <v>3</v>
-      </c>
-      <c r="E14" s="27">
-        <v>3</v>
-      </c>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="27">
-        <v>3</v>
-      </c>
-      <c r="E15" s="27">
-        <v>3</v>
-      </c>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="27">
-        <v>3</v>
-      </c>
-      <c r="E16" s="27">
-        <v>3</v>
-      </c>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="27">
-        <v>3</v>
-      </c>
-      <c r="E17" s="27">
-        <v>3</v>
-      </c>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D18" s="27">
         <v>3</v>
@@ -1585,17 +1485,17 @@
         <v>3</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="35"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="27">
         <v>3</v>
@@ -1604,182 +1504,273 @@
         <v>3</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="35"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="27">
+        <v>3</v>
+      </c>
+      <c r="E20" s="27">
+        <v>3</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="27">
+        <v>3</v>
+      </c>
+      <c r="E21" s="27">
+        <v>3</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="27">
+        <v>3</v>
+      </c>
+      <c r="E22" s="27">
+        <v>3</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="27">
+        <v>3</v>
+      </c>
+      <c r="E23" s="27">
+        <v>3</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="27">
+        <v>3</v>
+      </c>
+      <c r="E24" s="27">
+        <v>3</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="27">
+        <v>3</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="27">
+        <v>3</v>
+      </c>
+      <c r="E26" s="27">
+        <v>3</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="27">
+        <v>3</v>
+      </c>
+      <c r="E28" s="27">
+        <v>3</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="27">
+        <v>3</v>
+      </c>
+      <c r="E29" s="27">
+        <v>3</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="27">
+        <v>3</v>
+      </c>
+      <c r="E30" s="27">
+        <v>3</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="27">
+        <v>3</v>
+      </c>
+      <c r="E31" s="27">
+        <v>3</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="27">
+        <v>3</v>
+      </c>
+      <c r="E32" s="27">
+        <v>3</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="27">
-        <v>3</v>
-      </c>
-      <c r="E20" s="27">
-        <v>3</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B33" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="27">
-        <v>3</v>
-      </c>
-      <c r="E21" s="27">
-        <v>3</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="27">
-        <v>3</v>
-      </c>
-      <c r="E22" s="27">
-        <v>3</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="1:7" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="27">
-        <v>3</v>
-      </c>
-      <c r="E23" s="27">
-        <v>3</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="27">
+        <v>3</v>
+      </c>
+      <c r="E33" s="27">
+        <v>3</v>
+      </c>
       <c r="F33" s="26"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="37"/>
+      <c r="G33" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
